--- a/data/Migration.xlsx
+++ b/data/Migration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\robotv3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AEBD27-B732-4387-B7EF-BACAFE1A42D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF621E47-B5E5-440B-B6E5-630FA3B4528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9662A57A-0758-4128-97DC-382A9DB98F6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
   <si>
     <t>    url</t>
   </si>
@@ -324,6 +324,12 @@
   </si>
   <si>
     <t>    listVariable</t>
+  </si>
+  <si>
+    <t>detectGUI</t>
+  </si>
+  <si>
+    <t>Later</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,8 @@
   <dimension ref="B2:K97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F15:F16"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -891,19 +898,19 @@
       </c>
       <c r="D3" s="3">
         <f>SUM(I8:I97)</f>
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="E3" s="6">
         <f>D3/C3</f>
-        <v>0.38202247191011235</v>
+        <v>0.5955056179775281</v>
       </c>
       <c r="F3" s="9">
         <f>SUM(J8:J97)</f>
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="G3" s="10">
         <f>F3/C3</f>
-        <v>0.6179775280898876</v>
+        <v>0.4044943820224719</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
@@ -928,15 +935,15 @@
         <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8">
-        <f>IF(C8="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="I8:I39" si="0">IF(C8="OK",1,0)</f>
+        <v>1</v>
       </c>
       <c r="J8">
-        <f>IF(I8=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" ref="J8:J39" si="1">IF(I8=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -949,12 +956,15 @@
       <c r="C9" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D9" t="s">
+        <v>97</v>
+      </c>
       <c r="I9">
-        <f>IF(C9="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J9">
-        <f>IF(I9=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K9">
@@ -968,12 +978,15 @@
       <c r="C10" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
       <c r="I10">
-        <f>IF(C10="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>IF(I10=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K10">
@@ -987,12 +1000,15 @@
       <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
       <c r="I11">
-        <f>IF(C11="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f>IF(I11=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K11">
@@ -1004,15 +1020,15 @@
         <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I12">
-        <f>IF(C12="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J12">
-        <f>IF(I12=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1023,15 +1039,15 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I13">
-        <f>IF(C13="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J13">
-        <f>IF(I13=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1044,12 +1060,15 @@
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D14" t="s">
+        <v>96</v>
+      </c>
       <c r="I14">
-        <f>IF(C14="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
-        <f>IF(I14=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K14">
@@ -1063,12 +1082,15 @@
       <c r="C15" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
       <c r="I15">
-        <f>IF(C15="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J15">
-        <f>IF(I15=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K15">
@@ -1083,11 +1105,11 @@
         <v>82</v>
       </c>
       <c r="I16">
-        <f>IF(C16="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J16">
-        <f>IF(I16=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K16">
@@ -1102,11 +1124,11 @@
         <v>81</v>
       </c>
       <c r="I17">
-        <f>IF(C17="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J17">
-        <f>IF(I17=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17">
@@ -1121,11 +1143,11 @@
         <v>82</v>
       </c>
       <c r="I18">
-        <f>IF(C18="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J18">
-        <f>IF(I18=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K18">
@@ -1139,12 +1161,15 @@
       <c r="C19" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
       <c r="I19">
-        <f>IF(C19="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f>IF(I19=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K19">
@@ -1159,11 +1184,11 @@
         <v>82</v>
       </c>
       <c r="I20">
-        <f>IF(C20="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f>IF(I20=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K20">
@@ -1178,11 +1203,11 @@
         <v>81</v>
       </c>
       <c r="I21">
-        <f>IF(C21="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J21">
-        <f>IF(I21=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21">
@@ -1194,15 +1219,15 @@
         <v>66</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I22">
-        <f>IF(C22="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J22">
-        <f>IF(I22=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1216,11 +1241,11 @@
         <v>81</v>
       </c>
       <c r="I23">
-        <f>IF(C23="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J23">
-        <f>IF(I23=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23">
@@ -1235,11 +1260,11 @@
         <v>82</v>
       </c>
       <c r="I24">
-        <f>IF(C24="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f>IF(I24=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K24">
@@ -1253,12 +1278,15 @@
       <c r="C25" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D25" t="s">
+        <v>96</v>
+      </c>
       <c r="I25">
-        <f>IF(C25="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J25">
-        <f>IF(I25=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K25">
@@ -1273,11 +1301,11 @@
         <v>81</v>
       </c>
       <c r="I26">
-        <f>IF(C26="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J26">
-        <f>IF(I26=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26">
@@ -1289,15 +1317,15 @@
         <v>33</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I27">
-        <f>IF(C27="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J27">
-        <f>IF(I27=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -1311,11 +1339,11 @@
         <v>81</v>
       </c>
       <c r="I28">
-        <f>IF(C28="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J28">
-        <f>IF(I28=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28">
@@ -1330,11 +1358,11 @@
         <v>81</v>
       </c>
       <c r="I29">
-        <f>IF(C29="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J29">
-        <f>IF(I29=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29">
@@ -1349,11 +1377,11 @@
         <v>81</v>
       </c>
       <c r="I30">
-        <f>IF(C30="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J30">
-        <f>IF(I30=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30">
@@ -1365,15 +1393,15 @@
         <v>49</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31">
-        <f>IF(C31="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="J31">
-        <f>IF(I31=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="K31">
         <v>1</v>
@@ -1387,11 +1415,11 @@
         <v>81</v>
       </c>
       <c r="I32">
-        <f>IF(C32="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J32">
-        <f>IF(I32=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -1406,11 +1434,11 @@
         <v>81</v>
       </c>
       <c r="I33">
-        <f>IF(C33="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J33">
-        <f>IF(I33=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K33">
@@ -1425,11 +1453,11 @@
         <v>81</v>
       </c>
       <c r="I34">
-        <f>IF(C34="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J34">
-        <f>IF(I34=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K34">
@@ -1444,11 +1472,11 @@
         <v>81</v>
       </c>
       <c r="I35">
-        <f>IF(C35="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J35">
-        <f>IF(I35=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K35">
@@ -1463,11 +1491,11 @@
         <v>81</v>
       </c>
       <c r="I36">
-        <f>IF(C36="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J36">
-        <f>IF(I36=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K36">
@@ -1482,11 +1510,11 @@
         <v>81</v>
       </c>
       <c r="I37">
-        <f>IF(C37="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J37">
-        <f>IF(I37=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K37">
@@ -1501,11 +1529,11 @@
         <v>82</v>
       </c>
       <c r="I38">
-        <f>IF(C38="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J38">
-        <f>IF(I38=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K38">
@@ -1520,11 +1548,11 @@
         <v>81</v>
       </c>
       <c r="I39">
-        <f>IF(C39="OK",1,0)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J39">
-        <f>IF(I39=1,0,1)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K39">
@@ -1539,11 +1567,11 @@
         <v>82</v>
       </c>
       <c r="I40">
-        <f>IF(C40="OK",1,0)</f>
+        <f t="shared" ref="I40:I71" si="2">IF(C40="OK",1,0)</f>
         <v>0</v>
       </c>
       <c r="J40">
-        <f>IF(I40=1,0,1)</f>
+        <f t="shared" ref="J40:J71" si="3">IF(I40=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="K40">
@@ -1558,11 +1586,11 @@
         <v>81</v>
       </c>
       <c r="I41">
-        <f>IF(C41="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J41">
-        <f>IF(I41=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K41">
@@ -1577,11 +1605,11 @@
         <v>82</v>
       </c>
       <c r="I42">
-        <f>IF(C42="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42">
-        <f>IF(I42=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K42">
@@ -1596,11 +1624,11 @@
         <v>81</v>
       </c>
       <c r="I43">
-        <f>IF(C43="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J43">
-        <f>IF(I43=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K43">
@@ -1615,11 +1643,11 @@
         <v>82</v>
       </c>
       <c r="I44">
-        <f>IF(C44="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44">
-        <f>IF(I44=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K44">
@@ -1634,11 +1662,11 @@
         <v>82</v>
       </c>
       <c r="I45">
-        <f>IF(C45="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45">
-        <f>IF(I45=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K45">
@@ -1653,11 +1681,11 @@
         <v>82</v>
       </c>
       <c r="I46">
-        <f>IF(C46="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46">
-        <f>IF(I46=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K46">
@@ -1672,11 +1700,11 @@
         <v>81</v>
       </c>
       <c r="I47">
-        <f>IF(C47="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J47">
-        <f>IF(I47=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K47">
@@ -1691,11 +1719,11 @@
         <v>82</v>
       </c>
       <c r="I48">
-        <f>IF(C48="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48">
-        <f>IF(I48=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K48">
@@ -1707,15 +1735,15 @@
         <v>38</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I49">
-        <f>IF(C49="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J49">
-        <f>IF(I49=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -1726,15 +1754,15 @@
         <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I50">
-        <f>IF(C50="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J50">
-        <f>IF(I50=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -1745,15 +1773,15 @@
         <v>37</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I51">
-        <f>IF(C51="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J51">
-        <f>IF(I51=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -1764,15 +1792,15 @@
         <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I52">
-        <f>IF(C52="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J52">
-        <f>IF(I52=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -1786,11 +1814,11 @@
         <v>82</v>
       </c>
       <c r="I53">
-        <f>IF(C53="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53">
-        <f>IF(I53=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K53">
@@ -1805,11 +1833,11 @@
         <v>82</v>
       </c>
       <c r="I54">
-        <f>IF(C54="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54">
-        <f>IF(I54=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K54">
@@ -1821,15 +1849,15 @@
         <v>31</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I55">
-        <f>IF(C55="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J55">
-        <f>IF(I55=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K55">
         <v>1</v>
@@ -1843,11 +1871,11 @@
         <v>81</v>
       </c>
       <c r="I56">
-        <f>IF(C56="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J56">
-        <f>IF(I56=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K56">
@@ -1862,11 +1890,11 @@
         <v>81</v>
       </c>
       <c r="I57">
-        <f>IF(C57="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J57">
-        <f>IF(I57=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K57">
@@ -1881,11 +1909,11 @@
         <v>81</v>
       </c>
       <c r="I58">
-        <f>IF(C58="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J58">
-        <f>IF(I58=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K58">
@@ -1900,11 +1928,11 @@
         <v>81</v>
       </c>
       <c r="I59">
-        <f>IF(C59="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J59">
-        <f>IF(I59=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K59">
@@ -1919,11 +1947,11 @@
         <v>82</v>
       </c>
       <c r="I60">
-        <f>IF(C60="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60">
-        <f>IF(I60=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K60">
@@ -1938,11 +1966,11 @@
         <v>82</v>
       </c>
       <c r="I61">
-        <f>IF(C61="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61">
-        <f>IF(I61=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K61">
@@ -1957,11 +1985,11 @@
         <v>81</v>
       </c>
       <c r="I62">
-        <f>IF(C62="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J62">
-        <f>IF(I62=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K62">
@@ -1973,15 +2001,15 @@
         <v>29</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I63">
-        <f>IF(C63="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J63">
-        <f>IF(I63=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>1</v>
@@ -1992,15 +2020,15 @@
         <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I64">
-        <f>IF(C64="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J64">
-        <f>IF(I64=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K64">
         <v>1</v>
@@ -2011,15 +2039,15 @@
         <v>30</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I65">
-        <f>IF(C65="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J65">
-        <f>IF(I65=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K65">
         <v>1</v>
@@ -2033,11 +2061,11 @@
         <v>81</v>
       </c>
       <c r="I66">
-        <f>IF(C66="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J66">
-        <f>IF(I66=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K66">
@@ -2052,11 +2080,11 @@
         <v>81</v>
       </c>
       <c r="I67">
-        <f>IF(C67="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f>IF(I67=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K67">
@@ -2068,15 +2096,15 @@
         <v>52</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I68">
-        <f>IF(C68="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J68">
-        <f>IF(I68=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -2090,11 +2118,11 @@
         <v>82</v>
       </c>
       <c r="I69">
-        <f>IF(C69="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69">
-        <f>IF(I69=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K69">
@@ -2106,15 +2134,15 @@
         <v>50</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I70">
-        <f>IF(C70="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J70">
-        <f>IF(I70=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>1</v>
@@ -2128,11 +2156,11 @@
         <v>82</v>
       </c>
       <c r="I71">
-        <f>IF(C71="OK",1,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71">
-        <f>IF(I71=1,0,1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K71">
@@ -2144,15 +2172,15 @@
         <v>13</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I72">
-        <f>IF(C72="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="I72:I96" si="4">IF(C72="OK",1,0)</f>
+        <v>1</v>
       </c>
       <c r="J72">
-        <f>IF(I72=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" ref="J72:J96" si="5">IF(I72=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -2166,11 +2194,11 @@
         <v>82</v>
       </c>
       <c r="I73">
-        <f>IF(C73="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J73">
-        <f>IF(I73=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K73">
@@ -2182,15 +2210,15 @@
         <v>51</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I74">
-        <f>IF(C74="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J74">
-        <f>IF(I74=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K74">
         <v>1</v>
@@ -2204,11 +2232,11 @@
         <v>81</v>
       </c>
       <c r="I75">
-        <f>IF(C75="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J75">
-        <f>IF(I75=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K75">
@@ -2223,11 +2251,11 @@
         <v>82</v>
       </c>
       <c r="I76">
-        <f>IF(C76="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J76">
-        <f>IF(I76=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K76">
@@ -2242,11 +2270,11 @@
         <v>81</v>
       </c>
       <c r="I77">
-        <f>IF(C77="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f>IF(I77=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K77">
@@ -2261,11 +2289,11 @@
         <v>82</v>
       </c>
       <c r="I78">
-        <f>IF(C78="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J78">
-        <f>IF(I78=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K78">
@@ -2280,11 +2308,11 @@
         <v>94</v>
       </c>
       <c r="I79">
-        <f>IF(C79="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J79">
-        <f>IF(I79=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K79">
@@ -2299,11 +2327,11 @@
         <v>81</v>
       </c>
       <c r="I80">
-        <f>IF(C80="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J80">
-        <f>IF(I80=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K80">
@@ -2318,11 +2346,11 @@
         <v>81</v>
       </c>
       <c r="I81">
-        <f>IF(C81="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f>IF(I81=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K81">
@@ -2337,11 +2365,11 @@
         <v>81</v>
       </c>
       <c r="I82">
-        <f>IF(C82="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J82">
-        <f>IF(I82=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K82">
@@ -2356,11 +2384,11 @@
         <v>81</v>
       </c>
       <c r="I83">
-        <f>IF(C83="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f>IF(I83=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K83">
@@ -2375,11 +2403,11 @@
         <v>81</v>
       </c>
       <c r="I84">
-        <f>IF(C84="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J84">
-        <f>IF(I84=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K84">
@@ -2394,11 +2422,11 @@
         <v>82</v>
       </c>
       <c r="I85">
-        <f>IF(C85="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J85">
-        <f>IF(I85=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K85">
@@ -2413,11 +2441,11 @@
         <v>81</v>
       </c>
       <c r="I86">
-        <f>IF(C86="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J86">
-        <f>IF(I86=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K86">
@@ -2432,11 +2460,11 @@
         <v>82</v>
       </c>
       <c r="I87">
-        <f>IF(C87="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J87">
-        <f>IF(I87=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K87">
@@ -2451,11 +2479,11 @@
         <v>82</v>
       </c>
       <c r="I88">
-        <f>IF(C88="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J88">
-        <f>IF(I88=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K88">
@@ -2470,11 +2498,11 @@
         <v>82</v>
       </c>
       <c r="I89">
-        <f>IF(C89="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J89">
-        <f>IF(I89=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K89">
@@ -2486,15 +2514,15 @@
         <v>40</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I90">
-        <f>IF(C90="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="J90">
-        <f>IF(I90=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="K90">
         <v>1</v>
@@ -2508,11 +2536,11 @@
         <v>82</v>
       </c>
       <c r="I91">
-        <f>IF(C91="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J91">
-        <f>IF(I91=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K91">
@@ -2527,11 +2555,11 @@
         <v>81</v>
       </c>
       <c r="I92">
-        <f>IF(C92="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f>IF(I92=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K92">
@@ -2546,11 +2574,11 @@
         <v>81</v>
       </c>
       <c r="I93">
-        <f>IF(C93="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="J93">
-        <f>IF(I93=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K93">
@@ -2565,11 +2593,11 @@
         <v>82</v>
       </c>
       <c r="I94">
-        <f>IF(C94="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J94">
-        <f>IF(I94=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K94">
@@ -2584,11 +2612,11 @@
         <v>82</v>
       </c>
       <c r="I95">
-        <f>IF(C95="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f>IF(I95=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K95">
@@ -2603,11 +2631,11 @@
         <v>82</v>
       </c>
       <c r="I96">
-        <f>IF(C96="OK",1,0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J96">
-        <f>IF(I96=1,0,1)</f>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K96">

--- a/data/Migration.xlsx
+++ b/data/Migration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\robotv3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF621E47-B5E5-440B-B6E5-630FA3B4528E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1FD1AD-6A9F-4E96-906C-8B730511A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9662A57A-0758-4128-97DC-382A9DB98F6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
   <si>
     <t>    url</t>
   </si>
@@ -293,9 +293,6 @@
     <t xml:space="preserve">Overview: </t>
   </si>
   <si>
-    <t>switchToDefaultContent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    detectFrame</t>
   </si>
   <si>
@@ -320,16 +317,37 @@
     <t>    startPromise</t>
   </si>
   <si>
-    <t>&lt;TBR&gt;</t>
-  </si>
-  <si>
     <t>    listVariable</t>
   </si>
   <si>
     <t>detectGUI</t>
   </si>
   <si>
-    <t>Later</t>
+    <t>Frame</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    switchToDefaultContent</t>
+  </si>
+  <si>
+    <t>    AIAnalyse screen</t>
+  </si>
+  <si>
+    <t>    AIAnalyse</t>
+  </si>
+  <si>
+    <t>    AITraining</t>
+  </si>
+  <si>
+    <t>    AIStopBrowser</t>
+  </si>
+  <si>
+    <t>    AIStatistic</t>
+  </si>
+  <si>
+    <t>To be tested!!!</t>
   </si>
 </sst>
 </file>
@@ -360,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +406,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -511,12 +547,39 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -861,16 +924,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE8DB0B-B1B8-49B9-A9C3-DE843BD6372A}">
-  <dimension ref="B2:K97"/>
+  <dimension ref="B2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="P59" sqref="P59"/>
+      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.7265625" customWidth="1"/>
     <col min="9" max="11" width="8.7265625" hidden="1" customWidth="1"/>
   </cols>
@@ -893,24 +956,24 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.35">
       <c r="C3" s="12">
-        <f>SUM(K8:K97)</f>
-        <v>89</v>
+        <f>SUM(K8:K102)</f>
+        <v>94</v>
       </c>
       <c r="D3" s="3">
-        <f>SUM(I8:I97)</f>
-        <v>53</v>
+        <f>SUM(I8:I102)</f>
+        <v>82</v>
       </c>
       <c r="E3" s="6">
         <f>D3/C3</f>
-        <v>0.5955056179775281</v>
+        <v>0.87234042553191493</v>
       </c>
       <c r="F3" s="9">
-        <f>SUM(J8:J97)</f>
-        <v>36</v>
+        <f>SUM(J8:J102)</f>
+        <v>12</v>
       </c>
       <c r="G3" s="10">
         <f>F3/C3</f>
-        <v>0.4044943820224719</v>
+        <v>0.1276595744680851</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
@@ -938,11 +1001,11 @@
         <v>81</v>
       </c>
       <c r="I8">
-        <f t="shared" ref="I8:I39" si="0">IF(C8="OK",1,0)</f>
+        <f>IF(OR(C8="OK",C8="-"),1,0)</f>
         <v>1</v>
       </c>
       <c r="J8">
-        <f t="shared" ref="J8:J39" si="1">IF(I8=1,0,1)</f>
+        <f t="shared" ref="J8:J44" si="0">IF(I8=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K8">
@@ -950,22 +1013,19 @@
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="18" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I9:I77" si="1">IF(OR(C9="OK",C9="-"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J9">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -976,39 +1036,36 @@
         <v>74</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I10" si="2">IF(OR(C10="OK",C10="-"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" ref="J10" si="3">IF(I10=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
-        <v>75</v>
+      <c r="B11" s="19" t="s">
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D11" t="s">
-        <v>97</v>
+      <c r="D11" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K11">
@@ -1016,59 +1073,65 @@
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
-        <v>54</v>
+      <c r="B12" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="I12" si="4">IF(OR(C12="OK",C12="-"),1,0)</f>
+        <v>0</v>
       </c>
       <c r="J12">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J12" si="5">IF(I12=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>39</v>
+      <c r="B13" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" ref="I13" si="6">IF(OR(C13="OK",C13="-"),1,0)</f>
+        <v>0</v>
       </c>
       <c r="J13">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J13" si="7">IF(I13=1,0,1)</f>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
-        <v>92</v>
+      <c r="B14" s="19" t="s">
+        <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D14" t="s">
-        <v>96</v>
+      <c r="D14" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I14" si="8">IF(OR(C14="OK",C14="-"),1,0)</f>
         <v>0</v>
       </c>
       <c r="J14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J14" si="9">IF(I14=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="K14">
@@ -1076,21 +1139,21 @@
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
-        <v>91</v>
+      <c r="B15" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D15" t="s">
-        <v>96</v>
+      <c r="D15" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I15" si="10">IF(OR(C15="OK",C15="-"),1,0)</f>
         <v>0</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J15" si="11">IF(I15=1,0,1)</f>
         <v>1</v>
       </c>
       <c r="K15">
@@ -1099,18 +1162,18 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J16">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1118,17 +1181,17 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K17">
@@ -1137,18 +1200,18 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J18">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1156,20 +1219,20 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D19" t="s">
-        <v>96</v>
+      <c r="D19" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K19">
@@ -1178,17 +1241,20 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D20" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="I20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K20">
@@ -1197,17 +1263,17 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K21">
@@ -1216,17 +1282,17 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22">
@@ -1235,17 +1301,17 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K23">
@@ -1254,17 +1320,20 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D24" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="K24">
@@ -1273,21 +1342,18 @@
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1295,17 +1361,17 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K26">
@@ -1314,17 +1380,17 @@
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K27">
@@ -1333,17 +1399,17 @@
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K28">
@@ -1351,19 +1417,26 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
-        <v>21</v>
+      <c r="B29" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="17"/>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J29">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -1371,18 +1444,21 @@
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="J30">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -1390,17 +1466,17 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B31" s="1" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K31">
@@ -1409,17 +1485,17 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K32">
@@ -1428,17 +1504,17 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K33">
@@ -1447,17 +1523,17 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K34">
@@ -1466,17 +1542,17 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K35">
@@ -1485,17 +1561,17 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K36">
@@ -1503,18 +1579,18 @@
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>4</v>
+      <c r="B37" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K37">
@@ -1523,18 +1599,18 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J38">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -1542,17 +1618,17 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K39">
@@ -1561,18 +1637,18 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I40">
-        <f t="shared" ref="I40:I71" si="2">IF(C40="OK",1,0)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J40">
-        <f t="shared" ref="J40:J71" si="3">IF(I40=1,0,1)</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -1580,17 +1656,17 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K41">
@@ -1599,18 +1675,18 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I42">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J42">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -1618,17 +1694,17 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B43" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K43">
@@ -1637,37 +1713,37 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B44" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I44">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J44">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B45" s="1" t="s">
-        <v>64</v>
+      <c r="B45" s="18" t="s">
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I45">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J45">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" ref="J45:J76" si="12">IF(I45=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -1675,36 +1751,36 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B46" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I46">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J46">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="1" t="s">
-        <v>12</v>
+      <c r="B47" s="18" t="s">
+        <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K47">
@@ -1713,18 +1789,18 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I48">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J48">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -1732,17 +1808,17 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B49" s="1" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K49">
@@ -1751,17 +1827,17 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B50" s="1" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K50">
@@ -1770,17 +1846,17 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B51" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K51">
@@ -1789,17 +1865,17 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B52" s="1" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K52">
@@ -1807,19 +1883,19 @@
       </c>
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B53" s="1" t="s">
-        <v>47</v>
+      <c r="B53" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I53">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J53">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -1827,18 +1903,18 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B54" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I54">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J54">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -1846,17 +1922,17 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B55" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K55">
@@ -1865,17 +1941,17 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B56" s="1" t="s">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K56">
@@ -1884,17 +1960,17 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B57" s="1" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K57">
@@ -1903,17 +1979,17 @@
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B58" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K58">
@@ -1922,17 +1998,17 @@
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B59" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K59">
@@ -1941,18 +2017,18 @@
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B60" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I60">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J60">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>1</v>
@@ -1960,18 +2036,18 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I61">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J61">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>1</v>
@@ -1979,17 +2055,17 @@
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B62" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K62">
@@ -1998,17 +2074,17 @@
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B63" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K63">
@@ -2017,17 +2093,17 @@
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B64" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K64">
@@ -2035,18 +2111,18 @@
       </c>
     </row>
     <row r="65" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B65" s="1" t="s">
-        <v>30</v>
+      <c r="B65" s="18" t="s">
+        <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K65">
@@ -2054,18 +2130,18 @@
       </c>
     </row>
     <row r="66" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B66" s="1" t="s">
-        <v>45</v>
+      <c r="B66" s="18" t="s">
+        <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K66">
@@ -2073,18 +2149,18 @@
       </c>
     </row>
     <row r="67" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B67" s="15" t="s">
-        <v>78</v>
+      <c r="B67" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K67">
@@ -2093,17 +2169,17 @@
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B68" s="1" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K68">
@@ -2112,18 +2188,18 @@
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J69">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -2131,17 +2207,17 @@
     </row>
     <row r="70" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B70" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K70">
@@ -2150,36 +2226,36 @@
     </row>
     <row r="71" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B71" s="1" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J71">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B72" s="1" t="s">
-        <v>13</v>
+      <c r="B72" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I72">
-        <f t="shared" ref="I72:I96" si="4">IF(C72="OK",1,0)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J72">
-        <f t="shared" ref="J72:J96" si="5">IF(I72=1,0,1)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K72">
@@ -2188,36 +2264,36 @@
     </row>
     <row r="73" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B73" s="1" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I73">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J73">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B74" s="1" t="s">
-        <v>51</v>
+      <c r="B74" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K74">
@@ -2226,17 +2302,17 @@
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B75" s="1" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K75">
@@ -2245,18 +2321,18 @@
     </row>
     <row r="76" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B76" s="1" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I76">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="J76">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="K76">
         <v>1</v>
@@ -2264,17 +2340,17 @@
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B77" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J77">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J77:J101" si="13">IF(I77=1,0,1)</f>
         <v>0</v>
       </c>
       <c r="K77">
@@ -2283,18 +2359,18 @@
     </row>
     <row r="78" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B78" s="1" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I78">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="I78:I102" si="14">IF(OR(C78="OK",C78="-"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J78">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K78">
         <v>1</v>
@@ -2302,18 +2378,18 @@
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B79" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I79">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="J79">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K79">
         <v>1</v>
@@ -2321,17 +2397,17 @@
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B80" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K80">
@@ -2340,17 +2416,17 @@
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B81" s="1" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K81">
@@ -2359,17 +2435,17 @@
     </row>
     <row r="82" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B82" s="1" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K82">
@@ -2378,17 +2454,17 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B83" s="1" t="s">
-        <v>6</v>
+        <v>65</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K83">
@@ -2397,17 +2473,17 @@
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B84" s="1" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K84">
@@ -2416,18 +2492,18 @@
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B85" s="1" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I85">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="J85">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K85">
         <v>1</v>
@@ -2435,17 +2511,17 @@
     </row>
     <row r="86" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B86" s="1" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K86">
@@ -2454,18 +2530,18 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B87" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I87">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="J87">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K87">
         <v>1</v>
@@ -2473,18 +2549,18 @@
     </row>
     <row r="88" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B88" s="1" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I88">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="J88">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K88">
         <v>1</v>
@@ -2492,18 +2568,18 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I89">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="J89">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K89">
         <v>1</v>
@@ -2511,17 +2587,17 @@
     </row>
     <row r="90" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B90" s="1" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K90">
@@ -2530,18 +2606,18 @@
     </row>
     <row r="91" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B91" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I91">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1</v>
       </c>
       <c r="J91">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K91">
         <v>1</v>
@@ -2549,17 +2625,17 @@
     </row>
     <row r="92" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B92" s="1" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K92">
@@ -2568,17 +2644,17 @@
     </row>
     <row r="93" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B93" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K93">
@@ -2587,18 +2663,18 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I94">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f>IF(OR(C94="OK",C94="-"),1,0)</f>
+        <v>1</v>
       </c>
       <c r="J94">
-        <f t="shared" si="5"/>
-        <v>1</v>
+        <f>IF(I94=1,0,1)</f>
+        <v>0</v>
       </c>
       <c r="K94">
         <v>1</v>
@@ -2606,17 +2682,24 @@
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B95" s="1" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="D95" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" s="17"/>
       <c r="I95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K95">
@@ -2625,40 +2708,143 @@
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B96" s="1" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I96">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="K96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B97" s="1"/>
-      <c r="C97" s="2"/>
+      <c r="I97">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B101" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B102" s="1"/>
+      <c r="C102" s="2"/>
+      <c r="I102">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K97">
-    <sortCondition ref="B8:B97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:K102">
+    <sortCondition ref="B8:B102"/>
   </sortState>
-  <conditionalFormatting sqref="C8:C97">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="C8:C102">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>$C8="-"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$C8&lt;&gt;"OK"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="3">
       <formula>$C8="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;L_x000D_&amp;1#&amp;"Tahoma"&amp;9&amp;KCF022B C2 - Restricted use </oddFooter>
   </headerFooter>

--- a/data/Migration.xlsx
+++ b/data/Migration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\robotv3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1FD1AD-6A9F-4E96-906C-8B730511A960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC9906-5560-40CA-8375-2736D9963C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9662A57A-0758-4128-97DC-382A9DB98F6F}"/>
   </bookViews>
@@ -506,7 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -550,7 +550,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -558,7 +557,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -577,20 +576,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -927,8 +912,8 @@
   <dimension ref="B2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A70" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F90" sqref="F90"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,19 +946,19 @@
       </c>
       <c r="D3" s="3">
         <f>SUM(I8:I102)</f>
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="E3" s="6">
         <f>D3/C3</f>
-        <v>0.87234042553191493</v>
+        <v>0.97872340425531912</v>
       </c>
       <c r="F3" s="9">
         <f>SUM(J8:J102)</f>
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="G3" s="10">
         <f>F3/C3</f>
-        <v>0.1276595744680851</v>
+        <v>2.1276595744680851E-2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
@@ -1051,110 +1036,110 @@
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12" si="4">IF(OR(C12="OK",C12="-"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12" si="5">IF(I12=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I13">
         <f t="shared" ref="I13" si="6">IF(OR(C13="OK",C13="-"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
         <f t="shared" ref="J13" si="7">IF(I13=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14" si="8">IF(OR(C14="OK",C14="-"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <f t="shared" ref="J14" si="9">IF(I14=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15" si="10">IF(OR(C15="OK",C15="-"),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
         <f t="shared" ref="J15" si="11">IF(I15=1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1222,18 +1207,18 @@
         <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1244,18 +1229,18 @@
         <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -1323,18 +1308,18 @@
         <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1417,7 +1402,7 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="19" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1426,7 +1411,7 @@
       <c r="D29" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>103</v>
       </c>
       <c r="F29" s="17"/>
@@ -1447,18 +1432,18 @@
         <v>34</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>94</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>1</v>
@@ -2690,7 +2675,7 @@
       <c r="D95" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="20" t="s">
         <v>103</v>
       </c>
       <c r="F95" s="17"/>
@@ -2730,15 +2715,15 @@
         <v>69</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I97">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K97">
         <v>1</v>

--- a/data/Migration.xlsx
+++ b/data/Migration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\robotv3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFC9906-5560-40CA-8375-2736D9963C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F592E1-137F-4BE2-A1C1-29457C5269FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9662A57A-0758-4128-97DC-382A9DB98F6F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="103">
   <si>
     <t>    url</t>
   </si>
@@ -345,9 +345,6 @@
   </si>
   <si>
     <t>    AIStatistic</t>
-  </si>
-  <si>
-    <t>To be tested!!!</t>
   </si>
 </sst>
 </file>
@@ -506,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -550,8 +547,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,7 +908,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -946,19 +941,19 @@
       </c>
       <c r="D3" s="3">
         <f>SUM(I8:I102)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E3" s="6">
         <f>D3/C3</f>
-        <v>0.97872340425531912</v>
+        <v>1</v>
       </c>
       <c r="F3" s="9">
         <f>SUM(J8:J102)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="10">
         <f>F3/C3</f>
-        <v>2.1276595744680851E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.35">
@@ -1402,26 +1397,22 @@
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F29" s="17"/>
       <c r="I29">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>1</v>
@@ -2670,22 +2661,18 @@
         <v>60</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E95" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="F95" s="17"/>
       <c r="I95">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
         <v>1</v>

--- a/data/Migration.xlsx
+++ b/data/Migration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Apache24\htdocs\robotv3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F592E1-137F-4BE2-A1C1-29457C5269FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245F6232-788B-4A07-B432-373C9F9E9072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9662A57A-0758-4128-97DC-382A9DB98F6F}"/>
   </bookViews>
@@ -302,9 +302,6 @@
     <t>    getElement</t>
   </si>
   <si>
-    <t>    getAllElement</t>
-  </si>
-  <si>
     <t>    computeGUIDistance</t>
   </si>
   <si>
@@ -345,6 +342,9 @@
   </si>
   <si>
     <t>    AIStatistic</t>
+  </si>
+  <si>
+    <t>    getAllElements</t>
   </si>
 </sst>
 </file>
@@ -907,8 +907,8 @@
   <dimension ref="B2:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G20" sqref="G20"/>
+      <pane ySplit="3" topLeftCell="A73" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F91" sqref="F91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I9">
         <f t="shared" ref="I9:I77" si="1">IF(OR(C9="OK",C9="-"),1,0)</f>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I11">
         <f t="shared" si="1"/>
@@ -1054,13 +1054,13 @@
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I12">
         <f t="shared" ref="I12" si="4">IF(OR(C12="OK",C12="-"),1,0)</f>
@@ -1076,13 +1076,13 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13">
         <f t="shared" ref="I13" si="6">IF(OR(C13="OK",C13="-"),1,0)</f>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I14">
         <f t="shared" ref="I14" si="8">IF(OR(C14="OK",C14="-"),1,0)</f>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I15">
         <f t="shared" ref="I15" si="10">IF(OR(C15="OK",C15="-"),1,0)</f>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19">
         <f t="shared" si="1"/>
@@ -1221,13 +1221,13 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I20">
         <f t="shared" si="1"/>
@@ -1300,13 +1300,13 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
@@ -1401,10 +1401,10 @@
         <v>85</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I29">
         <f t="shared" si="1"/>
@@ -1426,7 +1426,7 @@
         <v>81</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I30">
         <f t="shared" si="1"/>
@@ -1708,10 +1708,10 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B45" s="18" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I45">
         <f t="shared" si="1"/>
@@ -1745,11 +1745,11 @@
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I47">
         <f t="shared" si="1"/>
@@ -1863,7 +1863,7 @@
         <v>70</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I53">
         <f t="shared" si="1"/>
@@ -2012,7 +2012,7 @@
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B61" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>81</v>
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
@@ -2262,7 +2262,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B89" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>81</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B94" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>81</v>
@@ -2664,7 +2664,7 @@
         <v>81</v>
       </c>
       <c r="D95" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I95">
         <f t="shared" si="14"/>
